--- a/ig/add-nos-deps/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/add-nos-deps/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:29:22+00:00</t>
+    <t>2023-12-08T09:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
